--- a/ShopifyBackupWeb/wwwroot/Data_Init/Import/Import.xlsx
+++ b/ShopifyBackupWeb/wwwroot/Data_Init/Import/Import.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\App\ShopifyApp\ShopifyBackupWeb\wwwroot\Data_Init\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Image</t>
   </si>
@@ -107,128 +107,92 @@
     <t>Carrer</t>
   </si>
   <si>
-    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/W6R46Zu9tXPyBg8YBH6D92GncrVsDu243bW7fr6e3e73MFXYAz_h8bx3f5hzutv.png?v=1551164254</t>
-  </si>
-  <si>
-    <t>District Unisex Shirt / Black / 3XL</t>
-  </si>
-  <si>
-    <t>29.95</t>
+    <t>https://cdn.shopify.com/s/files/1/0265/1838/8770/products/product-image-953619550.jpg?v=1567944593</t>
+  </si>
+  <si>
+    <t>1pcs</t>
+  </si>
+  <si>
+    <t>1.92</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>#LWF1198</t>
+    <t>#TBB091010</t>
+  </si>
+  <si>
+    <t>(415) 350-6624</t>
+  </si>
+  <si>
+    <t>25670605-1pcs</t>
+  </si>
+  <si>
+    <t>1/2/4 Pcs Wall Mount Ingredient Spice Bottle Rack - 1pcs</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>annereham@hotmail.com</t>
-  </si>
-  <si>
-    <t>Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 3XL</t>
-  </si>
-  <si>
-    <t>Slacks Creek</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Queensland</t>
-  </si>
-  <si>
-    <t>4127</t>
-  </si>
-  <si>
-    <t>15 Lowry Street</t>
-  </si>
-  <si>
-    <t>Anne maher</t>
-  </si>
-  <si>
-    <t>QLD</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/0092/7773/4990/products/t45g_1024x1024_acd10586-6107-4dad-b017-7e223e03e248.jpg?v=1558156035</t>
-  </si>
-  <si>
-    <t>Zip-Up Hoodie / L</t>
-  </si>
-  <si>
-    <t>79.95</t>
-  </si>
-  <si>
-    <t>#LWF1197</t>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>94112</t>
+  </si>
+  <si>
+    <t>1126 Persia Ave</t>
+  </si>
+  <si>
+    <t>Test 10</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>#TBB091009</t>
+  </si>
+  <si>
+    <t>6232295763</t>
+  </si>
+  <si>
+    <t>SURPRISE</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>85374</t>
+  </si>
+  <si>
+    <t>13216 W DESERT ROCK DR</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>www.google.com</t>
+  </si>
+  <si>
+    <t>nghiem</t>
   </si>
   <si>
     <t>quocquoc42@gmail.com</t>
-  </si>
-  <si>
-    <t>Aotearoa New Zealand - Maori Fern Tattoo Zipper Hoodie - T - Zip-Up Hoodie / L</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>72000</t>
-  </si>
-  <si>
-    <t>Bình Dương</t>
-  </si>
-  <si>
-    <t>nghiemnghiem</t>
-  </si>
-  <si>
-    <t>Bình DươngHoa Sen</t>
-  </si>
-  <si>
-    <t>District Unisex Shirt / Black / 2XL</t>
-  </si>
-  <si>
-    <t>#LWF1196</t>
-  </si>
-  <si>
-    <t>admin@jhsams.com.au</t>
-  </si>
-  <si>
-    <t>Lest we Forget Tshirt  ANZAC Day in New Zealand - District Unisex Shirt / Black / 2XL</t>
-  </si>
-  <si>
-    <t>Alberton</t>
-  </si>
-  <si>
-    <t>4207</t>
-  </si>
-  <si>
-    <t>15 Palmcrest Road</t>
-  </si>
-  <si>
-    <t>GailRasmussen</t>
-  </si>
-  <si>
-    <t>nghiem.com</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Vendor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +213,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,11 +254,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,8 +273,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -615,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,12 +604,12 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="21" width="21.28515625" customWidth="1"/>
     <col min="22" max="22" width="21.42578125" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,11 +685,8 @@
       <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -734,187 +709,124 @@
         <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2">
-        <v>1234</v>
-      </c>
-      <c r="X2" t="s">
-        <v>61</v>
+        <v>43434343</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>46</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>47</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3">
-        <v>1235</v>
-      </c>
-      <c r="X3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
         <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" t="s">
-        <v>59</v>
-      </c>
-      <c r="T4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
